--- a/Infra+AD/Azure Lab.xlsx
+++ b/Infra+AD/Azure Lab.xlsx
@@ -5,33 +5,31 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leejolley/Desktop/AzureLab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leejolley/Desktop/AzureLab/Infra+AD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DD92335-D285-6641-87BD-EC269B64B15E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{75173C55-6010-014B-A7CD-8650B9C743B6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13620" yWindow="600" windowWidth="24560" windowHeight="18540" activeTab="3" xr2:uid="{3993DB71-EDE7-834C-BAC2-EF7DF49B39F9}"/>
+    <workbookView xWindow="4720" yWindow="4160" windowWidth="32360" windowHeight="18420" xr2:uid="{3993DB71-EDE7-834C-BAC2-EF7DF49B39F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Virtual Machines" sheetId="5" r:id="rId1"/>
     <sheet name="AzureVMs.csv" sheetId="13" r:id="rId2"/>
-    <sheet name="AzureVMs2.csv" sheetId="33" r:id="rId3"/>
-    <sheet name="AzureStorage.csv (2)" sheetId="34" r:id="rId4"/>
-    <sheet name="AzureStorage.csv" sheetId="17" r:id="rId5"/>
-    <sheet name="AzureNetwork.csv" sheetId="3" r:id="rId6"/>
-    <sheet name="AD.csv" sheetId="32" r:id="rId7"/>
-    <sheet name="Virtual Machines (Split)" sheetId="22" r:id="rId8"/>
-    <sheet name="AzureVMs.csv (Split)" sheetId="27" r:id="rId9"/>
-    <sheet name="AzureStorage.csv (Split)" sheetId="24" r:id="rId10"/>
-    <sheet name="AzureNetwork.csv (Split)" sheetId="25" r:id="rId11"/>
-    <sheet name="Locations" sheetId="31" state="hidden" r:id="rId12"/>
-    <sheet name="StorageTypes" sheetId="30" state="hidden" r:id="rId13"/>
-    <sheet name="MachineTypes" sheetId="29" state="hidden" r:id="rId14"/>
-    <sheet name="Network Security Groups" sheetId="2" state="hidden" r:id="rId15"/>
-    <sheet name="ImageName" sheetId="19" state="hidden" r:id="rId16"/>
+    <sheet name="AzureStorage.csv" sheetId="17" r:id="rId3"/>
+    <sheet name="AzureNetwork.csv" sheetId="3" r:id="rId4"/>
+    <sheet name="Type" sheetId="33" state="hidden" r:id="rId5"/>
+    <sheet name="Virtual Machines (Split)" sheetId="22" r:id="rId6"/>
+    <sheet name="AzureVMs.csv (Split)" sheetId="27" r:id="rId7"/>
+    <sheet name="AzureStorage.csv (Split)" sheetId="24" r:id="rId8"/>
+    <sheet name="AzureNetwork.csv (Split)" sheetId="25" r:id="rId9"/>
+    <sheet name="Locations" sheetId="31" state="hidden" r:id="rId10"/>
+    <sheet name="StorageTypes" sheetId="30" state="hidden" r:id="rId11"/>
+    <sheet name="MachineTypes" sheetId="29" state="hidden" r:id="rId12"/>
+    <sheet name="Network Security Groups" sheetId="2" state="hidden" r:id="rId13"/>
+    <sheet name="ImageName" sheetId="19" state="hidden" r:id="rId14"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId17"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -43,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="299">
   <si>
     <t>Domain Controller</t>
   </si>
@@ -690,9 +688,6 @@
     <t>osDiskSAUri</t>
   </si>
   <si>
-    <t>ttplab1vmstoreus1</t>
-  </si>
-  <si>
     <t>ttplab1vmstoreu21</t>
   </si>
   <si>
@@ -924,12 +919,6 @@
     <t>10.3.1.8</t>
   </si>
   <si>
-    <t>DCIP</t>
-  </si>
-  <si>
-    <t>MSIP</t>
-  </si>
-  <si>
     <t>DomainName</t>
   </si>
   <si>
@@ -939,25 +928,16 @@
     <t>Member Server</t>
   </si>
   <si>
-    <t>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</t>
-  </si>
-  <si>
     <t>ttplab2-scu</t>
   </si>
   <si>
+    <t>ttplab2vmstorescu1</t>
+  </si>
+  <si>
     <t>ttplab2-scu-vnet-1</t>
   </si>
   <si>
-    <t>https://ttplab2vmstorescu1.blob.core.windows.net/osdisks/eucsadds01.vhd</t>
-  </si>
-  <si>
-    <t>https://ttplab2vmstorescu1.blob.core.windows.net/osdisks/eucsadcs01.vhd</t>
-  </si>
-  <si>
-    <t>https://ttplab2vmstorescu1.blob.core.windows.net/osdisks/eucsadcs02.vhd</t>
-  </si>
-  <si>
-    <t>https://ttplab2vmstorescu1.blob.core.windows.net/osdisks/mgmtrdsh01.vhd</t>
+    <t>ttplab1vmstorecsu1</t>
   </si>
 </sst>
 </file>
@@ -1232,7 +1212,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1333,6 +1313,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1746,8 +1728,8 @@
   </sheetPr>
   <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1859,7 +1841,7 @@
       <c r="A2" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="65" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="36" t="s">
@@ -1889,19 +1871,19 @@
         <v>126</v>
       </c>
       <c r="K2" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L2" s="34" t="s">
-        <v>242</v>
+        <v>295</v>
       </c>
       <c r="M2" s="34" t="s">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="N2" s="34" t="s">
-        <v>244</v>
+        <v>297</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P2" s="36" t="s">
         <v>164</v>
@@ -1942,8 +1924,8 @@
       <c r="A3" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>296</v>
+      <c r="B3" s="65" t="s">
+        <v>293</v>
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="36" t="s">
@@ -1970,19 +1952,19 @@
         <v>126</v>
       </c>
       <c r="K3" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L3" s="34" t="s">
-        <v>242</v>
+        <v>295</v>
       </c>
       <c r="M3" s="34" t="s">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="N3" s="34" t="s">
-        <v>244</v>
+        <v>297</v>
       </c>
       <c r="O3" s="35" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P3" s="36" t="s">
         <v>165</v>
@@ -2023,8 +2005,8 @@
       <c r="A4" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>297</v>
+      <c r="B4" s="65" t="s">
+        <v>294</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>33</v>
@@ -2053,19 +2035,19 @@
         <v>126</v>
       </c>
       <c r="K4" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L4" s="34" t="s">
-        <v>242</v>
+        <v>295</v>
       </c>
       <c r="M4" s="34" t="s">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="N4" s="34" t="s">
-        <v>244</v>
+        <v>297</v>
       </c>
       <c r="O4" s="35" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P4" s="36" t="s">
         <v>166</v>
@@ -2106,8 +2088,8 @@
       <c r="A5" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>297</v>
+      <c r="B5" s="65" t="s">
+        <v>294</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>33</v>
@@ -2136,19 +2118,19 @@
         <v>126</v>
       </c>
       <c r="K5" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L5" s="34" t="s">
-        <v>242</v>
+        <v>295</v>
       </c>
       <c r="M5" s="34" t="s">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="N5" s="34" t="s">
-        <v>244</v>
+        <v>297</v>
       </c>
       <c r="O5" s="35" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P5" s="36" t="s">
         <v>167</v>
@@ -2189,8 +2171,8 @@
       <c r="A6" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>297</v>
+      <c r="B6" s="65" t="s">
+        <v>294</v>
       </c>
       <c r="C6" s="36" t="s">
         <v>33</v>
@@ -2217,22 +2199,22 @@
         <v>153</v>
       </c>
       <c r="K6" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L6" s="34" t="s">
-        <v>242</v>
+        <v>295</v>
       </c>
       <c r="M6" s="34" t="s">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="N6" s="34" t="s">
-        <v>244</v>
+        <v>297</v>
       </c>
       <c r="O6" s="35" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P6" s="36" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q6" s="34" t="s">
         <v>50</v>
@@ -2270,8 +2252,8 @@
       <c r="A7" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>297</v>
+      <c r="B7" s="65" t="s">
+        <v>294</v>
       </c>
       <c r="C7" s="36" t="s">
         <v>33</v>
@@ -2298,22 +2280,22 @@
         <v>126</v>
       </c>
       <c r="K7" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L7" s="34" t="s">
-        <v>242</v>
+        <v>295</v>
       </c>
       <c r="M7" s="34" t="s">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="N7" s="34" t="s">
-        <v>244</v>
+        <v>297</v>
       </c>
       <c r="O7" s="35" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P7" s="36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q7" s="34" t="s">
         <v>50</v>
@@ -2351,8 +2333,8 @@
       <c r="A8" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>297</v>
+      <c r="B8" s="65" t="s">
+        <v>294</v>
       </c>
       <c r="C8" s="36" t="s">
         <v>33</v>
@@ -2379,22 +2361,22 @@
         <v>126</v>
       </c>
       <c r="K8" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L8" s="34" t="s">
-        <v>242</v>
+        <v>295</v>
       </c>
       <c r="M8" s="34" t="s">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="N8" s="34" t="s">
-        <v>244</v>
+        <v>297</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P8" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q8" s="34" t="s">
         <v>50</v>
@@ -2432,8 +2414,8 @@
       <c r="A9" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="67" t="s">
-        <v>297</v>
+      <c r="B9" s="80" t="s">
+        <v>294</v>
       </c>
       <c r="C9" s="67" t="s">
         <v>33</v>
@@ -2460,22 +2442,22 @@
         <v>126</v>
       </c>
       <c r="K9" s="66" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L9" s="66" t="s">
-        <v>242</v>
+        <v>295</v>
       </c>
       <c r="M9" s="66" t="s">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="N9" s="66" t="s">
-        <v>244</v>
+        <v>297</v>
       </c>
       <c r="O9" s="70" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P9" s="67" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q9" s="66" t="s">
         <v>50</v>
@@ -2513,7 +2495,7 @@
       <c r="A10" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="65" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="36" t="s">
@@ -2543,22 +2525,22 @@
         <v>126</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L10" s="34" t="s">
-        <v>242</v>
+        <v>295</v>
       </c>
       <c r="M10" s="34" t="s">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="N10" s="34" t="s">
-        <v>244</v>
+        <v>297</v>
       </c>
       <c r="O10" s="38" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P10" s="34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q10" s="34" t="s">
         <v>50</v>
@@ -2596,8 +2578,8 @@
       <c r="A11" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>297</v>
+      <c r="B11" s="65" t="s">
+        <v>294</v>
       </c>
       <c r="C11" s="36" t="s">
         <v>46</v>
@@ -2624,22 +2606,22 @@
         <v>126</v>
       </c>
       <c r="K11" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L11" s="34" t="s">
-        <v>242</v>
+        <v>295</v>
       </c>
       <c r="M11" s="34" t="s">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="N11" s="34" t="s">
-        <v>244</v>
+        <v>297</v>
       </c>
       <c r="O11" s="38" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P11" s="34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q11" s="34" t="s">
         <v>50</v>
@@ -2671,8 +2653,8 @@
       <c r="A12" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="36" t="s">
-        <v>297</v>
+      <c r="B12" s="65" t="s">
+        <v>294</v>
       </c>
       <c r="C12" s="36" t="s">
         <v>46</v>
@@ -2699,22 +2681,22 @@
         <v>126</v>
       </c>
       <c r="K12" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L12" s="34" t="s">
-        <v>242</v>
+        <v>295</v>
       </c>
       <c r="M12" s="34" t="s">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="N12" s="34" t="s">
-        <v>244</v>
+        <v>297</v>
       </c>
       <c r="O12" s="38" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P12" s="34" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q12" s="34" t="s">
         <v>50</v>
@@ -2746,8 +2728,8 @@
       <c r="A13" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="36" t="s">
-        <v>297</v>
+      <c r="B13" s="65" t="s">
+        <v>294</v>
       </c>
       <c r="C13" s="36" t="s">
         <v>46</v>
@@ -2776,22 +2758,22 @@
         <v>126</v>
       </c>
       <c r="K13" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L13" s="34" t="s">
-        <v>242</v>
+        <v>295</v>
       </c>
       <c r="M13" s="34" t="s">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="N13" s="34" t="s">
-        <v>244</v>
+        <v>297</v>
       </c>
       <c r="O13" s="38" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P13" s="34" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q13" s="34" t="s">
         <v>50</v>
@@ -2823,8 +2805,8 @@
       <c r="A14" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>297</v>
+      <c r="B14" s="65" t="s">
+        <v>294</v>
       </c>
       <c r="C14" s="36" t="s">
         <v>46</v>
@@ -2851,22 +2833,22 @@
         <v>8</v>
       </c>
       <c r="K14" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L14" s="34" t="s">
-        <v>242</v>
+        <v>295</v>
       </c>
       <c r="M14" s="33" t="s">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="N14" s="34" t="s">
-        <v>244</v>
+        <v>297</v>
       </c>
       <c r="O14" s="38" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q14" s="33" t="s">
         <v>50</v>
@@ -2898,8 +2880,8 @@
       <c r="A15" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="67" t="s">
-        <v>296</v>
+      <c r="B15" s="80" t="s">
+        <v>293</v>
       </c>
       <c r="C15" s="67"/>
       <c r="D15" s="66" t="s">
@@ -2924,22 +2906,22 @@
         <v>126</v>
       </c>
       <c r="K15" s="66" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L15" s="66" t="s">
-        <v>242</v>
+        <v>295</v>
       </c>
       <c r="M15" s="66" t="s">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="N15" s="66" t="s">
-        <v>244</v>
+        <v>297</v>
       </c>
       <c r="O15" s="70" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P15" s="66" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q15" s="66" t="s">
         <v>50</v>
@@ -2971,7 +2953,7 @@
       <c r="A16" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="65" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="36" t="s">
@@ -3001,22 +2983,22 @@
         <v>126</v>
       </c>
       <c r="K16" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L16" s="34" t="s">
-        <v>242</v>
+        <v>295</v>
       </c>
       <c r="M16" s="34" t="s">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="N16" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="O16" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="O16" s="35" t="s">
-        <v>245</v>
-      </c>
       <c r="P16" s="34" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q16" s="34" t="s">
         <v>50</v>
@@ -3048,8 +3030,8 @@
       <c r="A17" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="36" t="s">
-        <v>297</v>
+      <c r="B17" s="65" t="s">
+        <v>294</v>
       </c>
       <c r="C17" s="36" t="s">
         <v>47</v>
@@ -3078,22 +3060,22 @@
         <v>126</v>
       </c>
       <c r="K17" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L17" s="34" t="s">
-        <v>242</v>
+        <v>295</v>
       </c>
       <c r="M17" s="34" t="s">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="N17" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="O17" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="O17" s="35" t="s">
-        <v>245</v>
-      </c>
       <c r="P17" s="34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q17" s="34" t="s">
         <v>50</v>
@@ -3125,8 +3107,8 @@
       <c r="A18" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="36" t="s">
-        <v>297</v>
+      <c r="B18" s="65" t="s">
+        <v>294</v>
       </c>
       <c r="C18" s="36" t="s">
         <v>47</v>
@@ -3153,22 +3135,22 @@
         <v>153</v>
       </c>
       <c r="K18" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L18" s="34" t="s">
-        <v>242</v>
+        <v>295</v>
       </c>
       <c r="M18" s="34" t="s">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="N18" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="O18" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="O18" s="35" t="s">
-        <v>245</v>
-      </c>
       <c r="P18" s="34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q18" s="34" t="s">
         <v>50</v>
@@ -3200,8 +3182,8 @@
       <c r="A19" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="36" t="s">
-        <v>297</v>
+      <c r="B19" s="65" t="s">
+        <v>294</v>
       </c>
       <c r="C19" s="36" t="s">
         <v>47</v>
@@ -3230,22 +3212,22 @@
         <v>126</v>
       </c>
       <c r="K19" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L19" s="34" t="s">
-        <v>242</v>
+        <v>295</v>
       </c>
       <c r="M19" s="34" t="s">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="N19" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="O19" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="O19" s="35" t="s">
-        <v>245</v>
-      </c>
       <c r="P19" s="34" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q19" s="34" t="s">
         <v>50</v>
@@ -3277,8 +3259,8 @@
       <c r="A20" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="36" t="s">
-        <v>297</v>
+      <c r="B20" s="65" t="s">
+        <v>294</v>
       </c>
       <c r="C20" s="36" t="s">
         <v>47</v>
@@ -3307,22 +3289,22 @@
         <v>126</v>
       </c>
       <c r="K20" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L20" s="34" t="s">
-        <v>242</v>
+        <v>295</v>
       </c>
       <c r="M20" s="34" t="s">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="N20" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="O20" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="O20" s="35" t="s">
-        <v>245</v>
-      </c>
       <c r="P20" s="34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q20" s="34" t="s">
         <v>50</v>
@@ -3354,8 +3336,8 @@
       <c r="A21" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="36" t="s">
-        <v>297</v>
+      <c r="B21" s="65" t="s">
+        <v>294</v>
       </c>
       <c r="C21" s="36" t="s">
         <v>47</v>
@@ -3384,22 +3366,22 @@
         <v>126</v>
       </c>
       <c r="K21" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L21" s="34" t="s">
-        <v>242</v>
+        <v>295</v>
       </c>
       <c r="M21" s="34" t="s">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="N21" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="O21" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="O21" s="35" t="s">
-        <v>245</v>
-      </c>
       <c r="P21" s="34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q21" s="34" t="s">
         <v>50</v>
@@ -3431,8 +3413,8 @@
       <c r="A22" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="36" t="s">
-        <v>297</v>
+      <c r="B22" s="65" t="s">
+        <v>294</v>
       </c>
       <c r="C22" s="36" t="s">
         <v>47</v>
@@ -3459,22 +3441,22 @@
         <v>126</v>
       </c>
       <c r="K22" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L22" s="34" t="s">
-        <v>242</v>
+        <v>295</v>
       </c>
       <c r="M22" s="34" t="s">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="N22" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="O22" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="O22" s="35" t="s">
-        <v>245</v>
-      </c>
       <c r="P22" s="34" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q22" s="33" t="s">
         <v>50</v>
@@ -3506,8 +3488,8 @@
       <c r="A23" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="43" t="s">
-        <v>296</v>
+      <c r="B23" s="81" t="s">
+        <v>293</v>
       </c>
       <c r="C23" s="43"/>
       <c r="D23" s="43" t="s">
@@ -3532,22 +3514,22 @@
         <v>126</v>
       </c>
       <c r="K23" s="42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L23" s="42" t="s">
-        <v>242</v>
+        <v>295</v>
       </c>
       <c r="M23" s="42" t="s">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="N23" s="42" t="s">
-        <v>244</v>
+        <v>297</v>
       </c>
       <c r="O23" s="46" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P23" s="42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q23" s="42" t="s">
         <v>50</v>
@@ -3765,7 +3747,7 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EFA94CCC-6BE0-7F41-9B75-2841A9C5833E}">
           <x14:formula1>
             <xm:f>ImageName!$A$2:$A$13</xm:f>
@@ -3784,6 +3766,12 @@
           </x14:formula1>
           <xm:sqref>K2:K23</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D09A6464-EF3C-C947-BA05-A1E5D5C25F16}">
+          <x14:formula1>
+            <xm:f>Type!$A$1:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B23</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -3791,304 +3779,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D5F849-DAF9-C34D-AEE6-EC37AD633405}">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="D2" s="65" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="D3" s="65" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="D4" s="65" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="D5" s="65" t="s">
-        <v>113</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E4264CAD-A9A6-6344-8071-27B9ED8431D5}">
-          <x14:formula1>
-            <xm:f>StorageTypes!$B$1:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7F99557B-E06D-234B-93E0-9F576E7ED517}">
-          <x14:formula1>
-            <xm:f>Locations!$A$1:$A$28</xm:f>
-          </x14:formula1>
-          <xm:sqref>A5</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009F57DB-AD3F-3340-95A5-9639F200ED75}">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView zoomScale="179" workbookViewId="0">
-      <selection activeCell="F2" sqref="E2:F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>247</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>192</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>284</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC342430-F84E-614B-BE1E-3F9CC95AD251}">
   <sheetPr>
     <tabColor theme="4"/>
@@ -4106,17 +3796,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -4126,12 +3816,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -4141,107 +3831,107 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -4249,7 +3939,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9AABCC5-2235-A44E-B197-661D00ABC145}">
   <sheetPr>
     <tabColor theme="8"/>
@@ -4281,7 +3971,7 @@
         <v>207</v>
       </c>
       <c r="C2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -4292,7 +3982,7 @@
         <v>208</v>
       </c>
       <c r="C3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -4300,7 +3990,7 @@
         <v>209</v>
       </c>
       <c r="C4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -4328,7 +4018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02514A5A-158F-CA45-AF44-E614B4867041}">
   <sheetPr>
     <tabColor theme="8"/>
@@ -4447,7 +4137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0832EB-0AC3-5C4C-A77F-3AE078CC9BB1}">
   <sheetPr>
     <tabColor theme="8"/>
@@ -4473,28 +4163,28 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="84"/>
     </row>
     <row r="4" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="85"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="87"/>
     </row>
     <row r="5" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
@@ -4627,16 +4317,16 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="88"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="90"/>
     </row>
     <row r="11" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
@@ -4752,28 +4442,28 @@
       <c r="G15" s="21"/>
     </row>
     <row r="16" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="82"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="84"/>
     </row>
     <row r="17" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="89" t="s">
+      <c r="A17" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="91"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="93"/>
     </row>
     <row r="18" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
@@ -4906,16 +4596,16 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="89" t="s">
+      <c r="A23" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="90"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="91"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="93"/>
     </row>
     <row r="24" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
@@ -5022,28 +4712,28 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="80" t="s">
+      <c r="A29" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="81"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="82"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="84"/>
     </row>
     <row r="30" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="89" t="s">
+      <c r="A30" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="B30" s="90"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="91"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="93"/>
     </row>
     <row r="31" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
@@ -5176,16 +4866,16 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="89" t="s">
+      <c r="A36" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="B36" s="90"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="90"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="91"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="93"/>
     </row>
     <row r="37" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
@@ -5292,28 +4982,28 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="80" t="s">
+      <c r="A42" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="B42" s="81"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="81"/>
-      <c r="H42" s="82"/>
+      <c r="B42" s="83"/>
+      <c r="C42" s="83"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="83"/>
+      <c r="G42" s="83"/>
+      <c r="H42" s="84"/>
     </row>
     <row r="43" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="89" t="s">
+      <c r="A43" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="90"/>
-      <c r="C43" s="90"/>
-      <c r="D43" s="90"/>
-      <c r="E43" s="90"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="90"/>
-      <c r="H43" s="91"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="92"/>
+      <c r="G43" s="92"/>
+      <c r="H43" s="93"/>
     </row>
     <row r="44" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
@@ -5446,16 +5136,16 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="89" t="s">
+      <c r="A49" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="B49" s="90"/>
-      <c r="C49" s="90"/>
-      <c r="D49" s="90"/>
-      <c r="E49" s="90"/>
-      <c r="F49" s="90"/>
-      <c r="G49" s="90"/>
-      <c r="H49" s="91"/>
+      <c r="B49" s="92"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="92"/>
+      <c r="E49" s="92"/>
+      <c r="F49" s="92"/>
+      <c r="G49" s="92"/>
+      <c r="H49" s="93"/>
     </row>
     <row r="50" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
@@ -5562,28 +5252,28 @@
       </c>
     </row>
     <row r="55" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="80" t="s">
+      <c r="A55" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="B55" s="81"/>
-      <c r="C55" s="81"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="81"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="82"/>
+      <c r="B55" s="83"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="83"/>
+      <c r="E55" s="83"/>
+      <c r="F55" s="83"/>
+      <c r="G55" s="83"/>
+      <c r="H55" s="84"/>
     </row>
     <row r="56" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="89" t="s">
+      <c r="A56" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="B56" s="90"/>
-      <c r="C56" s="90"/>
-      <c r="D56" s="90"/>
-      <c r="E56" s="90"/>
-      <c r="F56" s="90"/>
-      <c r="G56" s="90"/>
-      <c r="H56" s="91"/>
+      <c r="B56" s="92"/>
+      <c r="C56" s="92"/>
+      <c r="D56" s="92"/>
+      <c r="E56" s="92"/>
+      <c r="F56" s="92"/>
+      <c r="G56" s="92"/>
+      <c r="H56" s="93"/>
     </row>
     <row r="57" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="s">
@@ -5716,16 +5406,16 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="89" t="s">
+      <c r="A62" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="B62" s="90"/>
-      <c r="C62" s="90"/>
-      <c r="D62" s="90"/>
-      <c r="E62" s="90"/>
-      <c r="F62" s="90"/>
-      <c r="G62" s="90"/>
-      <c r="H62" s="91"/>
+      <c r="B62" s="92"/>
+      <c r="C62" s="92"/>
+      <c r="D62" s="92"/>
+      <c r="E62" s="92"/>
+      <c r="F62" s="92"/>
+      <c r="G62" s="92"/>
+      <c r="H62" s="93"/>
     </row>
     <row r="63" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="23" t="s">
@@ -5853,7 +5543,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72659D1-B20C-B548-BCD7-EDF48B8B2A89}">
   <sheetPr>
     <tabColor theme="8"/>
@@ -6119,10 +5809,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6130,18 +5820,20 @@
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="64.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="53.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="64.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -6151,1132 +5843,1314 @@
       <c r="C1" t="s">
         <v>110</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="75" t="s">
+        <v>292</v>
+      </c>
+      <c r="F1" t="s">
         <v>108</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>88</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>109</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>146</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>161</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>129</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="75" t="str">
         <f>'Virtual Machines'!K2</f>
         <v>SouthCentralUS</v>
       </c>
       <c r="B2" s="75" t="str">
         <f>'Virtual Machines'!L2</f>
-        <v>ttplab1-scu</v>
+        <v>ttplab2-scu</v>
       </c>
       <c r="C2" s="75" t="str">
         <f>'Virtual Machines'!A2</f>
         <v>eucsadds01</v>
       </c>
       <c r="D2" s="75" t="str">
+        <f>'Virtual Machines'!B2</f>
+        <v>Domain Controller</v>
+      </c>
+      <c r="E2" s="75" t="str">
+        <f>'Virtual Machines'!C2</f>
+        <v>eucs.internal</v>
+      </c>
+      <c r="F2" s="75" t="str">
         <f>'Virtual Machines'!G2</f>
         <v>Standard_B2s</v>
       </c>
-      <c r="E2" s="75" t="str">
+      <c r="G2" s="75" t="str">
         <f>'Virtual Machines'!N2</f>
-        <v>ttplab1-scu-vnet-1</v>
-      </c>
-      <c r="F2" s="75" t="str">
+        <v>ttplab2-scu-vnet-1</v>
+      </c>
+      <c r="H2" s="75" t="str">
         <f>'Virtual Machines'!O2</f>
         <v>eucslan-scu-1</v>
       </c>
-      <c r="G2" s="75" t="str">
+      <c r="I2" s="75" t="str">
         <f>'Virtual Machines'!P2</f>
         <v>10.1.1.4</v>
       </c>
-      <c r="H2" s="75" t="str">
+      <c r="J2" s="75" t="str">
         <f>VLOOKUP('Virtual Machines'!J2,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="I2" s="75" t="str">
-        <f>LEFT(H2, SEARCH(":",H2,1)-1)</f>
+      <c r="K2" s="75" t="str">
+        <f>LEFT(J2, SEARCH(":",J2,1)-1)</f>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="J2" s="75" t="str">
-        <f>MID(H2, SEARCH(":",H2) + 1, SEARCH(":",H2,SEARCH(":",H2)+1) - SEARCH(":",H2) - 1)</f>
+      <c r="L2" s="75" t="str">
+        <f>MID(J2, SEARCH(":",J2) + 1, SEARCH(":",J2,SEARCH(":",J2)+1) - SEARCH(":",J2) - 1)</f>
         <v>WindowsServer</v>
       </c>
-      <c r="K2" s="75" t="str">
-        <f>RIGHT(H2,LEN(H2) - SEARCH(":", H2, SEARCH(":", H2) + 1))</f>
+      <c r="M2" s="75" t="str">
+        <f>RIGHT(J2,LEN(J2) - SEARCH(":", J2, SEARCH(":", J2) + 1))</f>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="L2" s="75" t="str">
+      <c r="N2" s="75" t="str">
         <f>CONCATENATE("https://",'Virtual Machines'!M2,".blob.core.windows.net/osdisks/",C2,".vhd")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/eucsadds01.vhd</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>https://ttplab2vmstorescu1.blob.core.windows.net/osdisks/eucsadds01.vhd</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="75" t="str">
         <f>'Virtual Machines'!K3</f>
         <v>SouthCentralUS</v>
       </c>
       <c r="B3" s="75" t="str">
         <f>'Virtual Machines'!L3</f>
-        <v>ttplab1-scu</v>
+        <v>ttplab2-scu</v>
       </c>
       <c r="C3" s="75" t="str">
         <f>'Virtual Machines'!A3</f>
         <v>eucsadcs01</v>
       </c>
       <c r="D3" s="75" t="str">
+        <f>'Virtual Machines'!B3</f>
+        <v>Standalone</v>
+      </c>
+      <c r="E3" s="75">
+        <f>'Virtual Machines'!C3</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="75" t="str">
         <f>'Virtual Machines'!G3</f>
         <v>Standard_B2s</v>
       </c>
-      <c r="E3" s="75" t="str">
+      <c r="G3" s="75" t="str">
         <f>'Virtual Machines'!N3</f>
-        <v>ttplab1-scu-vnet-1</v>
-      </c>
-      <c r="F3" s="75" t="str">
+        <v>ttplab2-scu-vnet-1</v>
+      </c>
+      <c r="H3" s="75" t="str">
         <f>'Virtual Machines'!O3</f>
         <v>eucslan-scu-1</v>
       </c>
-      <c r="G3" s="75" t="str">
+      <c r="I3" s="75" t="str">
         <f>'Virtual Machines'!P3</f>
         <v>10.1.1.5</v>
       </c>
-      <c r="H3" s="75" t="str">
+      <c r="J3" s="75" t="str">
         <f>VLOOKUP('Virtual Machines'!J3,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="I3" s="75" t="str">
-        <f t="shared" ref="I3:I23" si="0">LEFT(H3, SEARCH(":",H3,1)-1)</f>
+      <c r="K3" s="75" t="str">
+        <f t="shared" ref="K3:K23" si="0">LEFT(J3, SEARCH(":",J3,1)-1)</f>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="J3" s="75" t="str">
-        <f t="shared" ref="J3:J23" si="1">MID(H3, SEARCH(":",H3) + 1, SEARCH(":",H3,SEARCH(":",H3)+1) - SEARCH(":",H3) - 1)</f>
+      <c r="L3" s="75" t="str">
+        <f t="shared" ref="L3:L23" si="1">MID(J3, SEARCH(":",J3) + 1, SEARCH(":",J3,SEARCH(":",J3)+1) - SEARCH(":",J3) - 1)</f>
         <v>WindowsServer</v>
       </c>
-      <c r="K3" s="75" t="str">
-        <f t="shared" ref="K3:K23" si="2">RIGHT(H3,LEN(H3) - SEARCH(":", H3, SEARCH(":", H3) + 1))</f>
+      <c r="M3" s="75" t="str">
+        <f t="shared" ref="M3:M23" si="2">RIGHT(J3,LEN(J3) - SEARCH(":", J3, SEARCH(":", J3) + 1))</f>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="L3" s="75" t="str">
+      <c r="N3" s="75" t="str">
         <f>CONCATENATE("https://",'Virtual Machines'!M3,".blob.core.windows.net/osdisks/",C3,".vhd")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/eucsadcs01.vhd</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>https://ttplab2vmstorescu1.blob.core.windows.net/osdisks/eucsadcs01.vhd</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="75" t="str">
         <f>'Virtual Machines'!K4</f>
         <v>SouthCentralUS</v>
       </c>
       <c r="B4" s="75" t="str">
         <f>'Virtual Machines'!L4</f>
-        <v>ttplab1-scu</v>
+        <v>ttplab2-scu</v>
       </c>
       <c r="C4" s="75" t="str">
         <f>'Virtual Machines'!A4</f>
         <v>eucsadcs02</v>
       </c>
       <c r="D4" s="75" t="str">
+        <f>'Virtual Machines'!B4</f>
+        <v>Member Server</v>
+      </c>
+      <c r="E4" s="75" t="str">
+        <f>'Virtual Machines'!C4</f>
+        <v>eucs.internal</v>
+      </c>
+      <c r="F4" s="75" t="str">
         <f>'Virtual Machines'!G4</f>
         <v>Standard_B2s</v>
       </c>
-      <c r="E4" s="75" t="str">
+      <c r="G4" s="75" t="str">
         <f>'Virtual Machines'!N4</f>
-        <v>ttplab1-scu-vnet-1</v>
-      </c>
-      <c r="F4" s="75" t="str">
+        <v>ttplab2-scu-vnet-1</v>
+      </c>
+      <c r="H4" s="75" t="str">
         <f>'Virtual Machines'!O4</f>
         <v>eucslan-scu-1</v>
       </c>
-      <c r="G4" s="75" t="str">
+      <c r="I4" s="75" t="str">
         <f>'Virtual Machines'!P4</f>
         <v>10.1.1.6</v>
       </c>
-      <c r="H4" s="75" t="str">
+      <c r="J4" s="75" t="str">
         <f>VLOOKUP('Virtual Machines'!J4,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="I4" s="75" t="str">
+      <c r="K4" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="J4" s="75" t="str">
+      <c r="L4" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="K4" s="75" t="str">
+      <c r="M4" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="L4" s="75" t="str">
+      <c r="N4" s="75" t="str">
         <f>CONCATENATE("https://",'Virtual Machines'!M4,".blob.core.windows.net/osdisks/",C4,".vhd")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/eucsadcs02.vhd</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>https://ttplab2vmstorescu1.blob.core.windows.net/osdisks/eucsadcs02.vhd</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="75" t="str">
         <f>'Virtual Machines'!K5</f>
         <v>SouthCentralUS</v>
       </c>
       <c r="B5" s="75" t="str">
         <f>'Virtual Machines'!L5</f>
-        <v>ttplab1-scu</v>
+        <v>ttplab2-scu</v>
       </c>
       <c r="C5" s="75" t="str">
         <f>'Virtual Machines'!A5</f>
         <v>mgmtrdsh01</v>
       </c>
       <c r="D5" s="75" t="str">
+        <f>'Virtual Machines'!B5</f>
+        <v>Member Server</v>
+      </c>
+      <c r="E5" s="75" t="str">
+        <f>'Virtual Machines'!C5</f>
+        <v>eucs.internal</v>
+      </c>
+      <c r="F5" s="75" t="str">
         <f>'Virtual Machines'!G5</f>
         <v>Standard_B2s</v>
       </c>
-      <c r="E5" s="75" t="str">
+      <c r="G5" s="75" t="str">
         <f>'Virtual Machines'!N5</f>
-        <v>ttplab1-scu-vnet-1</v>
-      </c>
-      <c r="F5" s="75" t="str">
+        <v>ttplab2-scu-vnet-1</v>
+      </c>
+      <c r="H5" s="75" t="str">
         <f>'Virtual Machines'!O5</f>
         <v>eucslan-scu-1</v>
       </c>
-      <c r="G5" s="75" t="str">
+      <c r="I5" s="75" t="str">
         <f>'Virtual Machines'!P5</f>
         <v>10.1.1.7</v>
       </c>
-      <c r="H5" s="75" t="str">
+      <c r="J5" s="75" t="str">
         <f>VLOOKUP('Virtual Machines'!J5,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="I5" s="75" t="str">
+      <c r="K5" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="J5" s="75" t="str">
+      <c r="L5" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="K5" s="75" t="str">
+      <c r="M5" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="L5" s="75" t="str">
+      <c r="N5" s="75" t="str">
         <f>CONCATENATE("https://",'Virtual Machines'!M5,".blob.core.windows.net/osdisks/",C5,".vhd")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/mgmtrdsh01.vhd</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+        <v>https://ttplab2vmstorescu1.blob.core.windows.net/osdisks/mgmtrdsh01.vhd</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="75" t="str">
         <f>'Virtual Machines'!K6</f>
         <v>SouthCentralUS</v>
       </c>
       <c r="B6" s="75" t="str">
         <f>'Virtual Machines'!L6</f>
-        <v>ttplab1-scu</v>
+        <v>ttplab2-scu</v>
       </c>
       <c r="C6" s="75" t="str">
         <f>'Virtual Machines'!A6</f>
         <v>eucssqls0101</v>
       </c>
       <c r="D6" s="75" t="str">
+        <f>'Virtual Machines'!B6</f>
+        <v>Member Server</v>
+      </c>
+      <c r="E6" s="75" t="str">
+        <f>'Virtual Machines'!C6</f>
+        <v>eucs.internal</v>
+      </c>
+      <c r="F6" s="75" t="str">
         <f>'Virtual Machines'!G6</f>
         <v>Standard_B2ms</v>
       </c>
-      <c r="E6" s="75" t="str">
+      <c r="G6" s="75" t="str">
         <f>'Virtual Machines'!N6</f>
-        <v>ttplab1-scu-vnet-1</v>
-      </c>
-      <c r="F6" s="75" t="str">
+        <v>ttplab2-scu-vnet-1</v>
+      </c>
+      <c r="H6" s="75" t="str">
         <f>'Virtual Machines'!O6</f>
         <v>eucslan-scu-1</v>
       </c>
-      <c r="G6" s="75" t="str">
+      <c r="I6" s="75" t="str">
         <f>'Virtual Machines'!P6</f>
         <v>10.1.1.8</v>
       </c>
-      <c r="H6" s="75" t="str">
+      <c r="J6" s="75" t="str">
         <f>VLOOKUP('Virtual Machines'!J6,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftSQLServer:SQL2012SP4-WS2012R2:Standard</v>
       </c>
-      <c r="I6" s="75" t="str">
+      <c r="K6" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftSQLServer</v>
       </c>
-      <c r="J6" s="75" t="str">
+      <c r="L6" s="75" t="str">
         <f t="shared" si="1"/>
         <v>SQL2012SP4-WS2012R2</v>
       </c>
-      <c r="K6" s="75" t="str">
+      <c r="M6" s="75" t="str">
         <f t="shared" si="2"/>
         <v>Standard</v>
       </c>
-      <c r="L6" s="75" t="str">
+      <c r="N6" s="75" t="str">
         <f>CONCATENATE("https://",'Virtual Machines'!M6,".blob.core.windows.net/osdisks/",C6,".vhd")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/eucssqls0101.vhd</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>https://ttplab2vmstorescu1.blob.core.windows.net/osdisks/eucssqls0101.vhd</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="75" t="str">
         <f>'Virtual Machines'!K7</f>
         <v>SouthCentralUS</v>
       </c>
       <c r="B7" s="75" t="str">
         <f>'Virtual Machines'!L7</f>
-        <v>ttplab1-scu</v>
+        <v>ttplab2-scu</v>
       </c>
       <c r="C7" s="75" t="str">
         <f>'Virtual Machines'!A7</f>
         <v>eucssccm01</v>
       </c>
       <c r="D7" s="75" t="str">
+        <f>'Virtual Machines'!B7</f>
+        <v>Member Server</v>
+      </c>
+      <c r="E7" s="75" t="str">
+        <f>'Virtual Machines'!C7</f>
+        <v>eucs.internal</v>
+      </c>
+      <c r="F7" s="75" t="str">
         <f>'Virtual Machines'!G7</f>
         <v>Standard_B2ms</v>
       </c>
-      <c r="E7" s="75" t="str">
+      <c r="G7" s="75" t="str">
         <f>'Virtual Machines'!N7</f>
-        <v>ttplab1-scu-vnet-1</v>
-      </c>
-      <c r="F7" s="75" t="str">
+        <v>ttplab2-scu-vnet-1</v>
+      </c>
+      <c r="H7" s="75" t="str">
         <f>'Virtual Machines'!O7</f>
         <v>eucslan-scu-1</v>
       </c>
-      <c r="G7" s="75" t="str">
+      <c r="I7" s="75" t="str">
         <f>'Virtual Machines'!P7</f>
         <v>10.1.1.9</v>
       </c>
-      <c r="H7" s="75" t="str">
+      <c r="J7" s="75" t="str">
         <f>VLOOKUP('Virtual Machines'!J7,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="I7" s="75" t="str">
+      <c r="K7" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="J7" s="75" t="str">
+      <c r="L7" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="K7" s="75" t="str">
+      <c r="M7" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="L7" s="75" t="str">
+      <c r="N7" s="75" t="str">
         <f>CONCATENATE("https://",'Virtual Machines'!M7,".blob.core.windows.net/osdisks/",C7,".vhd")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/eucssccm01.vhd</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>https://ttplab2vmstorescu1.blob.core.windows.net/osdisks/eucssccm01.vhd</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="75" t="str">
         <f>'Virtual Machines'!K8</f>
         <v>SouthCentralUS</v>
       </c>
       <c r="B8" s="75" t="str">
         <f>'Virtual Machines'!L8</f>
-        <v>ttplab1-scu</v>
+        <v>ttplab2-scu</v>
       </c>
       <c r="C8" s="75" t="str">
         <f>'Virtual Machines'!A8</f>
         <v>eucsscor01</v>
       </c>
       <c r="D8" s="75" t="str">
+        <f>'Virtual Machines'!B8</f>
+        <v>Member Server</v>
+      </c>
+      <c r="E8" s="75" t="str">
+        <f>'Virtual Machines'!C8</f>
+        <v>eucs.internal</v>
+      </c>
+      <c r="F8" s="75" t="str">
         <f>'Virtual Machines'!G8</f>
         <v>Standard_B2ms</v>
       </c>
-      <c r="E8" s="75" t="str">
+      <c r="G8" s="75" t="str">
         <f>'Virtual Machines'!N8</f>
-        <v>ttplab1-scu-vnet-1</v>
-      </c>
-      <c r="F8" s="75" t="str">
+        <v>ttplab2-scu-vnet-1</v>
+      </c>
+      <c r="H8" s="75" t="str">
         <f>'Virtual Machines'!O8</f>
         <v>eucslan-scu-1</v>
       </c>
-      <c r="G8" s="75" t="str">
+      <c r="I8" s="75" t="str">
         <f>'Virtual Machines'!P8</f>
         <v>10.1.1.10</v>
       </c>
-      <c r="H8" s="75" t="str">
+      <c r="J8" s="75" t="str">
         <f>VLOOKUP('Virtual Machines'!J8,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="I8" s="75" t="str">
+      <c r="K8" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="J8" s="75" t="str">
+      <c r="L8" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="K8" s="75" t="str">
+      <c r="M8" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="L8" s="75" t="str">
+      <c r="N8" s="75" t="str">
         <f>CONCATENATE("https://",'Virtual Machines'!M8,".blob.core.windows.net/osdisks/",C8,".vhd")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/eucsscor01.vhd</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>https://ttplab2vmstorescu1.blob.core.windows.net/osdisks/eucsscor01.vhd</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="75" t="str">
         <f>'Virtual Machines'!K9</f>
         <v>SouthCentralUS</v>
       </c>
       <c r="B9" s="75" t="str">
         <f>'Virtual Machines'!L9</f>
-        <v>ttplab1-scu</v>
+        <v>ttplab2-scu</v>
       </c>
       <c r="C9" s="75" t="str">
         <f>'Virtual Machines'!A9</f>
         <v>eucsscsm01</v>
       </c>
       <c r="D9" s="75" t="str">
+        <f>'Virtual Machines'!B9</f>
+        <v>Member Server</v>
+      </c>
+      <c r="E9" s="75" t="str">
+        <f>'Virtual Machines'!C9</f>
+        <v>eucs.internal</v>
+      </c>
+      <c r="F9" s="75" t="str">
         <f>'Virtual Machines'!G9</f>
         <v>Standard_B2ms</v>
       </c>
-      <c r="E9" s="75" t="str">
+      <c r="G9" s="75" t="str">
         <f>'Virtual Machines'!N9</f>
-        <v>ttplab1-scu-vnet-1</v>
-      </c>
-      <c r="F9" s="75" t="str">
+        <v>ttplab2-scu-vnet-1</v>
+      </c>
+      <c r="H9" s="75" t="str">
         <f>'Virtual Machines'!O9</f>
         <v>eucslan-scu-1</v>
       </c>
-      <c r="G9" s="75" t="str">
+      <c r="I9" s="75" t="str">
         <f>'Virtual Machines'!P9</f>
         <v>10.1.1.11</v>
       </c>
-      <c r="H9" s="75" t="str">
+      <c r="J9" s="75" t="str">
         <f>VLOOKUP('Virtual Machines'!J9,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="I9" s="75" t="str">
+      <c r="K9" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="J9" s="75" t="str">
+      <c r="L9" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="K9" s="75" t="str">
+      <c r="M9" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="L9" s="75" t="str">
+      <c r="N9" s="75" t="str">
         <f>CONCATENATE("https://",'Virtual Machines'!M9,".blob.core.windows.net/osdisks/",C9,".vhd")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/eucsscsm01.vhd</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>https://ttplab2vmstorescu1.blob.core.windows.net/osdisks/eucsscsm01.vhd</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="75" t="str">
         <f>'Virtual Machines'!K10</f>
         <v>SouthCentralUS</v>
       </c>
       <c r="B10" s="75" t="str">
         <f>'Virtual Machines'!L10</f>
-        <v>ttplab1-scu</v>
+        <v>ttplab2-scu</v>
       </c>
       <c r="C10" s="75" t="str">
         <f>'Virtual Machines'!A10</f>
         <v>useradds01</v>
       </c>
       <c r="D10" s="75" t="str">
+        <f>'Virtual Machines'!B10</f>
+        <v>Domain Controller</v>
+      </c>
+      <c r="E10" s="75" t="str">
+        <f>'Virtual Machines'!C10</f>
+        <v>user.internal</v>
+      </c>
+      <c r="F10" s="75" t="str">
         <f>'Virtual Machines'!G10</f>
         <v>Standard_B2s</v>
       </c>
-      <c r="E10" s="75" t="str">
+      <c r="G10" s="75" t="str">
         <f>'Virtual Machines'!N10</f>
-        <v>ttplab1-scu-vnet-1</v>
-      </c>
-      <c r="F10" s="75" t="str">
+        <v>ttplab2-scu-vnet-1</v>
+      </c>
+      <c r="H10" s="75" t="str">
         <f>'Virtual Machines'!O10</f>
         <v>userlan-scu-1</v>
       </c>
-      <c r="G10" s="75" t="str">
+      <c r="I10" s="75" t="str">
         <f>'Virtual Machines'!P10</f>
         <v>10.1.2.4</v>
       </c>
-      <c r="H10" s="75" t="str">
+      <c r="J10" s="75" t="str">
         <f>VLOOKUP('Virtual Machines'!J10,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="I10" s="75" t="str">
+      <c r="K10" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="J10" s="75" t="str">
+      <c r="L10" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="K10" s="75" t="str">
+      <c r="M10" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="L10" s="75" t="str">
+      <c r="N10" s="75" t="str">
         <f>CONCATENATE("https://",'Virtual Machines'!M10,".blob.core.windows.net/osdisks/",C10,".vhd")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/useradds01.vhd</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>https://ttplab2vmstorescu1.blob.core.windows.net/osdisks/useradds01.vhd</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="75" t="str">
         <f>'Virtual Machines'!K11</f>
         <v>SouthCentralUS</v>
       </c>
       <c r="B11" s="75" t="str">
         <f>'Virtual Machines'!L11</f>
-        <v>ttplab1-scu</v>
+        <v>ttplab2-scu</v>
       </c>
       <c r="C11" s="75" t="str">
         <f>'Virtual Machines'!A11</f>
         <v>usermail01</v>
       </c>
       <c r="D11" s="75" t="str">
+        <f>'Virtual Machines'!B11</f>
+        <v>Member Server</v>
+      </c>
+      <c r="E11" s="75" t="str">
+        <f>'Virtual Machines'!C11</f>
+        <v>user.internal</v>
+      </c>
+      <c r="F11" s="75" t="str">
         <f>'Virtual Machines'!G11</f>
         <v>Standard_B2s</v>
       </c>
-      <c r="E11" s="75" t="str">
+      <c r="G11" s="75" t="str">
         <f>'Virtual Machines'!N11</f>
-        <v>ttplab1-scu-vnet-1</v>
-      </c>
-      <c r="F11" s="75" t="str">
+        <v>ttplab2-scu-vnet-1</v>
+      </c>
+      <c r="H11" s="75" t="str">
         <f>'Virtual Machines'!O11</f>
         <v>userlan-scu-1</v>
       </c>
-      <c r="G11" s="75" t="str">
+      <c r="I11" s="75" t="str">
         <f>'Virtual Machines'!P11</f>
         <v>10.1.2.5</v>
       </c>
-      <c r="H11" s="75" t="str">
+      <c r="J11" s="75" t="str">
         <f>VLOOKUP('Virtual Machines'!J11,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="I11" s="75" t="str">
+      <c r="K11" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="J11" s="75" t="str">
+      <c r="L11" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="K11" s="75" t="str">
+      <c r="M11" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="L11" s="75" t="str">
+      <c r="N11" s="75" t="str">
         <f>CONCATENATE("https://",'Virtual Machines'!M11,".blob.core.windows.net/osdisks/",C11,".vhd")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/usermail01.vhd</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>https://ttplab2vmstorescu1.blob.core.windows.net/osdisks/usermail01.vhd</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="75" t="str">
         <f>'Virtual Machines'!K12</f>
         <v>SouthCentralUS</v>
       </c>
       <c r="B12" s="75" t="str">
         <f>'Virtual Machines'!L12</f>
-        <v>ttplab1-scu</v>
+        <v>ttplab2-scu</v>
       </c>
       <c r="C12" s="75" t="str">
         <f>'Virtual Machines'!A12</f>
         <v>useraadc01</v>
       </c>
       <c r="D12" s="75" t="str">
+        <f>'Virtual Machines'!B12</f>
+        <v>Member Server</v>
+      </c>
+      <c r="E12" s="75" t="str">
+        <f>'Virtual Machines'!C12</f>
+        <v>user.internal</v>
+      </c>
+      <c r="F12" s="75" t="str">
         <f>'Virtual Machines'!G12</f>
         <v>Standard_B2s</v>
       </c>
-      <c r="E12" s="75" t="str">
+      <c r="G12" s="75" t="str">
         <f>'Virtual Machines'!N12</f>
-        <v>ttplab1-scu-vnet-1</v>
-      </c>
-      <c r="F12" s="75" t="str">
+        <v>ttplab2-scu-vnet-1</v>
+      </c>
+      <c r="H12" s="75" t="str">
         <f>'Virtual Machines'!O12</f>
         <v>userlan-scu-1</v>
       </c>
-      <c r="G12" s="75" t="str">
+      <c r="I12" s="75" t="str">
         <f>'Virtual Machines'!P12</f>
         <v>10.1.2.6</v>
       </c>
-      <c r="H12" s="75" t="str">
+      <c r="J12" s="75" t="str">
         <f>VLOOKUP('Virtual Machines'!J12,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="I12" s="75" t="str">
+      <c r="K12" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="J12" s="75" t="str">
+      <c r="L12" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="K12" s="75" t="str">
+      <c r="M12" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="L12" s="75" t="str">
+      <c r="N12" s="75" t="str">
         <f>CONCATENATE("https://",'Virtual Machines'!M12,".blob.core.windows.net/osdisks/",C12,".vhd")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/useraadc01.vhd</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v>https://ttplab2vmstorescu1.blob.core.windows.net/osdisks/useraadc01.vhd</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="75" t="str">
         <f>'Virtual Machines'!K13</f>
         <v>SouthCentralUS</v>
       </c>
       <c r="B13" s="75" t="str">
         <f>'Virtual Machines'!L13</f>
-        <v>ttplab1-scu</v>
+        <v>ttplab2-scu</v>
       </c>
       <c r="C13" s="75" t="str">
         <f>'Virtual Machines'!A13</f>
         <v>useradfs01</v>
       </c>
       <c r="D13" s="75" t="str">
+        <f>'Virtual Machines'!B13</f>
+        <v>Member Server</v>
+      </c>
+      <c r="E13" s="75" t="str">
+        <f>'Virtual Machines'!C13</f>
+        <v>user.internal</v>
+      </c>
+      <c r="F13" s="75" t="str">
         <f>'Virtual Machines'!G13</f>
         <v>Standard_B2s</v>
       </c>
-      <c r="E13" s="75" t="str">
+      <c r="G13" s="75" t="str">
         <f>'Virtual Machines'!N13</f>
-        <v>ttplab1-scu-vnet-1</v>
-      </c>
-      <c r="F13" s="75" t="str">
+        <v>ttplab2-scu-vnet-1</v>
+      </c>
+      <c r="H13" s="75" t="str">
         <f>'Virtual Machines'!O13</f>
         <v>userlan-scu-1</v>
       </c>
-      <c r="G13" s="75" t="str">
+      <c r="I13" s="75" t="str">
         <f>'Virtual Machines'!P13</f>
         <v>10.1.2.7</v>
       </c>
-      <c r="H13" s="75" t="str">
+      <c r="J13" s="75" t="str">
         <f>VLOOKUP('Virtual Machines'!J13,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="I13" s="75" t="str">
+      <c r="K13" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="J13" s="75" t="str">
+      <c r="L13" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="K13" s="75" t="str">
+      <c r="M13" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="L13" s="75" t="str">
+      <c r="N13" s="75" t="str">
         <f>CONCATENATE("https://",'Virtual Machines'!M13,".blob.core.windows.net/osdisks/",C13,".vhd")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/useradfs01.vhd</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+        <v>https://ttplab2vmstorescu1.blob.core.windows.net/osdisks/useradfs01.vhd</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="75" t="str">
         <f>'Virtual Machines'!K14</f>
         <v>SouthCentralUS</v>
       </c>
       <c r="B14" s="75" t="str">
         <f>'Virtual Machines'!L14</f>
-        <v>ttplab1-scu</v>
+        <v>ttplab2-scu</v>
       </c>
       <c r="C14" s="75" t="str">
         <f>'Virtual Machines'!A14</f>
         <v>userclient</v>
       </c>
       <c r="D14" s="75" t="str">
+        <f>'Virtual Machines'!B14</f>
+        <v>Member Server</v>
+      </c>
+      <c r="E14" s="75" t="str">
+        <f>'Virtual Machines'!C14</f>
+        <v>user.internal</v>
+      </c>
+      <c r="F14" s="75" t="str">
         <f>'Virtual Machines'!G14</f>
         <v>Standard_B2s</v>
       </c>
-      <c r="E14" s="75" t="str">
+      <c r="G14" s="75" t="str">
         <f>'Virtual Machines'!N14</f>
-        <v>ttplab1-scu-vnet-1</v>
-      </c>
-      <c r="F14" s="75" t="str">
+        <v>ttplab2-scu-vnet-1</v>
+      </c>
+      <c r="H14" s="75" t="str">
         <f>'Virtual Machines'!O14</f>
         <v>userlan-scu-1</v>
       </c>
-      <c r="G14" s="75" t="str">
+      <c r="I14" s="75" t="str">
         <f>'Virtual Machines'!P14</f>
         <v>10.1.2.8</v>
       </c>
-      <c r="H14" s="75" t="str">
+      <c r="J14" s="75" t="str">
         <f>VLOOKUP('Virtual Machines'!J14,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsDesktop:Windows-10:RS3-Pro</v>
       </c>
-      <c r="I14" s="75" t="str">
+      <c r="K14" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsDesktop</v>
       </c>
-      <c r="J14" s="75" t="str">
+      <c r="L14" s="75" t="str">
         <f t="shared" si="1"/>
         <v>Windows-10</v>
       </c>
-      <c r="K14" s="75" t="str">
+      <c r="M14" s="75" t="str">
         <f t="shared" si="2"/>
         <v>RS3-Pro</v>
       </c>
-      <c r="L14" s="75" t="str">
+      <c r="N14" s="75" t="str">
         <f>CONCATENATE("https://",'Virtual Machines'!M14,".blob.core.windows.net/osdisks/",C14,".vhd")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/userclient.vhd</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <v>https://ttplab2vmstorescu1.blob.core.windows.net/osdisks/userclient.vhd</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="75" t="str">
         <f>'Virtual Machines'!K15</f>
         <v>SouthCentralUS</v>
       </c>
       <c r="B15" s="75" t="str">
         <f>'Virtual Machines'!L15</f>
-        <v>ttplab1-scu</v>
+        <v>ttplab2-scu</v>
       </c>
       <c r="C15" s="75" t="str">
         <f>'Virtual Machines'!A15</f>
         <v>userawap01</v>
       </c>
       <c r="D15" s="75" t="str">
+        <f>'Virtual Machines'!B15</f>
+        <v>Standalone</v>
+      </c>
+      <c r="E15" s="75">
+        <f>'Virtual Machines'!C15</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="75" t="str">
         <f>'Virtual Machines'!G15</f>
         <v>Standard_B2s</v>
       </c>
-      <c r="E15" s="75" t="str">
+      <c r="G15" s="75" t="str">
         <f>'Virtual Machines'!N15</f>
-        <v>ttplab1-scu-vnet-1</v>
-      </c>
-      <c r="F15" s="75" t="str">
+        <v>ttplab2-scu-vnet-1</v>
+      </c>
+      <c r="H15" s="75" t="str">
         <f>'Virtual Machines'!O15</f>
         <v>userdmz-scu-1</v>
       </c>
-      <c r="G15" s="75" t="str">
+      <c r="I15" s="75" t="str">
         <f>'Virtual Machines'!P15</f>
         <v>10.1.3.4</v>
       </c>
-      <c r="H15" s="75" t="str">
+      <c r="J15" s="75" t="str">
         <f>VLOOKUP('Virtual Machines'!J15,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="I15" s="75" t="str">
+      <c r="K15" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="J15" s="75" t="str">
+      <c r="L15" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="K15" s="75" t="str">
+      <c r="M15" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="L15" s="75" t="str">
+      <c r="N15" s="75" t="str">
         <f>CONCATENATE("https://",'Virtual Machines'!M15,".blob.core.windows.net/osdisks/",C15,".vhd")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/userawap01.vhd</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+        <v>https://ttplab2vmstorescu1.blob.core.windows.net/osdisks/userawap01.vhd</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="75" t="str">
         <f>'Virtual Machines'!K16</f>
         <v>SouthCentralUS</v>
       </c>
       <c r="B16" s="75" t="str">
         <f>'Virtual Machines'!L16</f>
-        <v>ttplab1-scu</v>
+        <v>ttplab2-scu</v>
       </c>
       <c r="C16" s="75" t="str">
         <f>'Virtual Machines'!A16</f>
         <v>siamadds01</v>
       </c>
       <c r="D16" s="75" t="str">
+        <f>'Virtual Machines'!B16</f>
+        <v>Domain Controller</v>
+      </c>
+      <c r="E16" s="75" t="str">
+        <f>'Virtual Machines'!C16</f>
+        <v>siam.internal</v>
+      </c>
+      <c r="F16" s="75" t="str">
         <f>'Virtual Machines'!G16</f>
         <v>Standard_B2s</v>
       </c>
-      <c r="E16" s="75" t="str">
+      <c r="G16" s="75" t="str">
         <f>'Virtual Machines'!N16</f>
-        <v>ttplab1-scu-vnet-1</v>
-      </c>
-      <c r="F16" s="75" t="str">
+        <v>ttplab2-scu-vnet-1</v>
+      </c>
+      <c r="H16" s="75" t="str">
         <f>'Virtual Machines'!O16</f>
         <v>siamlan-scu-1</v>
       </c>
-      <c r="G16" s="75" t="str">
+      <c r="I16" s="75" t="str">
         <f>'Virtual Machines'!P16</f>
         <v>10.1.4.4</v>
       </c>
-      <c r="H16" s="75" t="str">
+      <c r="J16" s="75" t="str">
         <f>VLOOKUP('Virtual Machines'!J16,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="I16" s="75" t="str">
+      <c r="K16" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="J16" s="75" t="str">
+      <c r="L16" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="K16" s="75" t="str">
+      <c r="M16" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="L16" s="75" t="str">
+      <c r="N16" s="75" t="str">
         <f>CONCATENATE("https://",'Virtual Machines'!M16,".blob.core.windows.net/osdisks/",C16,".vhd")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/siamadds01.vhd</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+        <v>https://ttplab2vmstorescu1.blob.core.windows.net/osdisks/siamadds01.vhd</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="75" t="str">
         <f>'Virtual Machines'!K17</f>
         <v>SouthCentralUS</v>
       </c>
       <c r="B17" s="75" t="str">
         <f>'Virtual Machines'!L17</f>
-        <v>ttplab1-scu</v>
+        <v>ttplab2-scu</v>
       </c>
       <c r="C17" s="75" t="str">
         <f>'Virtual Machines'!A17</f>
         <v>siamadfs01</v>
       </c>
       <c r="D17" s="75" t="str">
+        <f>'Virtual Machines'!B17</f>
+        <v>Member Server</v>
+      </c>
+      <c r="E17" s="75" t="str">
+        <f>'Virtual Machines'!C17</f>
+        <v>siam.internal</v>
+      </c>
+      <c r="F17" s="75" t="str">
         <f>'Virtual Machines'!G17</f>
         <v>Standard_B2s</v>
       </c>
-      <c r="E17" s="75" t="str">
+      <c r="G17" s="75" t="str">
         <f>'Virtual Machines'!N17</f>
-        <v>ttplab1-scu-vnet-1</v>
-      </c>
-      <c r="F17" s="75" t="str">
+        <v>ttplab2-scu-vnet-1</v>
+      </c>
+      <c r="H17" s="75" t="str">
         <f>'Virtual Machines'!O17</f>
         <v>siamlan-scu-1</v>
       </c>
-      <c r="G17" s="75" t="str">
+      <c r="I17" s="75" t="str">
         <f>'Virtual Machines'!P17</f>
         <v>10.1.4.5</v>
       </c>
-      <c r="H17" s="75" t="str">
+      <c r="J17" s="75" t="str">
         <f>VLOOKUP('Virtual Machines'!J17,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="I17" s="75" t="str">
+      <c r="K17" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="J17" s="75" t="str">
+      <c r="L17" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="K17" s="75" t="str">
+      <c r="M17" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="L17" s="75" t="str">
+      <c r="N17" s="75" t="str">
         <f>CONCATENATE("https://",'Virtual Machines'!M17,".blob.core.windows.net/osdisks/",C17,".vhd")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/siamadfs01.vhd</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+        <v>https://ttplab2vmstorescu1.blob.core.windows.net/osdisks/siamadfs01.vhd</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="75" t="str">
         <f>'Virtual Machines'!K18</f>
         <v>SouthCentralUS</v>
       </c>
       <c r="B18" s="75" t="str">
         <f>'Virtual Machines'!L18</f>
-        <v>ttplab1-scu</v>
+        <v>ttplab2-scu</v>
       </c>
       <c r="C18" s="75" t="str">
         <f>'Virtual Machines'!A18</f>
         <v>siamsqls01</v>
       </c>
       <c r="D18" s="75" t="str">
+        <f>'Virtual Machines'!B18</f>
+        <v>Member Server</v>
+      </c>
+      <c r="E18" s="75" t="str">
+        <f>'Virtual Machines'!C18</f>
+        <v>siam.internal</v>
+      </c>
+      <c r="F18" s="75" t="str">
         <f>'Virtual Machines'!G18</f>
         <v>Standard_B2ms</v>
       </c>
-      <c r="E18" s="75" t="str">
+      <c r="G18" s="75" t="str">
         <f>'Virtual Machines'!N18</f>
-        <v>ttplab1-scu-vnet-1</v>
-      </c>
-      <c r="F18" s="75" t="str">
+        <v>ttplab2-scu-vnet-1</v>
+      </c>
+      <c r="H18" s="75" t="str">
         <f>'Virtual Machines'!O18</f>
         <v>siamlan-scu-1</v>
       </c>
-      <c r="G18" s="75" t="str">
+      <c r="I18" s="75" t="str">
         <f>'Virtual Machines'!P18</f>
         <v>10.1.4.6</v>
       </c>
-      <c r="H18" s="75" t="str">
+      <c r="J18" s="75" t="str">
         <f>VLOOKUP('Virtual Machines'!J18,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftSQLServer:SQL2012SP4-WS2012R2:Standard</v>
       </c>
-      <c r="I18" s="75" t="str">
+      <c r="K18" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftSQLServer</v>
       </c>
-      <c r="J18" s="75" t="str">
+      <c r="L18" s="75" t="str">
         <f t="shared" si="1"/>
         <v>SQL2012SP4-WS2012R2</v>
       </c>
-      <c r="K18" s="75" t="str">
+      <c r="M18" s="75" t="str">
         <f t="shared" si="2"/>
         <v>Standard</v>
       </c>
-      <c r="L18" s="75" t="str">
+      <c r="N18" s="75" t="str">
         <f>CONCATENATE("https://",'Virtual Machines'!M18,".blob.core.windows.net/osdisks/",C18,".vhd")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/siamsqls01.vhd</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+        <v>https://ttplab2vmstorescu1.blob.core.windows.net/osdisks/siamsqls01.vhd</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="75" t="str">
         <f>'Virtual Machines'!K19</f>
         <v>SouthCentralUS</v>
       </c>
       <c r="B19" s="75" t="str">
         <f>'Virtual Machines'!L19</f>
-        <v>ttplab1-scu</v>
+        <v>ttplab2-scu</v>
       </c>
       <c r="C19" s="75" t="str">
         <f>'Virtual Machines'!A19</f>
         <v>siamserv01</v>
       </c>
       <c r="D19" s="75" t="str">
+        <f>'Virtual Machines'!B19</f>
+        <v>Member Server</v>
+      </c>
+      <c r="E19" s="75" t="str">
+        <f>'Virtual Machines'!C19</f>
+        <v>siam.internal</v>
+      </c>
+      <c r="F19" s="75" t="str">
         <f>'Virtual Machines'!G19</f>
         <v>Standard_B2ms</v>
       </c>
-      <c r="E19" s="75" t="str">
+      <c r="G19" s="75" t="str">
         <f>'Virtual Machines'!N19</f>
-        <v>ttplab1-scu-vnet-1</v>
-      </c>
-      <c r="F19" s="75" t="str">
+        <v>ttplab2-scu-vnet-1</v>
+      </c>
+      <c r="H19" s="75" t="str">
         <f>'Virtual Machines'!O19</f>
         <v>siamlan-scu-1</v>
       </c>
-      <c r="G19" s="75" t="str">
+      <c r="I19" s="75" t="str">
         <f>'Virtual Machines'!P19</f>
         <v>10.1.4.7</v>
       </c>
-      <c r="H19" s="75" t="str">
+      <c r="J19" s="75" t="str">
         <f>VLOOKUP('Virtual Machines'!J19,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="I19" s="75" t="str">
+      <c r="K19" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="J19" s="75" t="str">
+      <c r="L19" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="K19" s="75" t="str">
+      <c r="M19" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="L19" s="75" t="str">
+      <c r="N19" s="75" t="str">
         <f>CONCATENATE("https://",'Virtual Machines'!M19,".blob.core.windows.net/osdisks/",C19,".vhd")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/siamserv01.vhd</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+        <v>https://ttplab2vmstorescu1.blob.core.windows.net/osdisks/siamserv01.vhd</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="75" t="str">
         <f>'Virtual Machines'!K20</f>
         <v>SouthCentralUS</v>
       </c>
       <c r="B20" s="75" t="str">
         <f>'Virtual Machines'!L20</f>
-        <v>ttplab1-scu</v>
+        <v>ttplab2-scu</v>
       </c>
       <c r="C20" s="75" t="str">
         <f>'Virtual Machines'!A20</f>
         <v>siamspsv01</v>
       </c>
       <c r="D20" s="75" t="str">
+        <f>'Virtual Machines'!B20</f>
+        <v>Member Server</v>
+      </c>
+      <c r="E20" s="75" t="str">
+        <f>'Virtual Machines'!C20</f>
+        <v>siam.internal</v>
+      </c>
+      <c r="F20" s="75" t="str">
         <f>'Virtual Machines'!G20</f>
         <v>Standard_B2ms</v>
       </c>
-      <c r="E20" s="75" t="str">
+      <c r="G20" s="75" t="str">
         <f>'Virtual Machines'!N20</f>
-        <v>ttplab1-scu-vnet-1</v>
-      </c>
-      <c r="F20" s="75" t="str">
+        <v>ttplab2-scu-vnet-1</v>
+      </c>
+      <c r="H20" s="75" t="str">
         <f>'Virtual Machines'!O20</f>
         <v>siamlan-scu-1</v>
       </c>
-      <c r="G20" s="75" t="str">
+      <c r="I20" s="75" t="str">
         <f>'Virtual Machines'!P20</f>
         <v>10.1.4.8</v>
       </c>
-      <c r="H20" s="75" t="str">
+      <c r="J20" s="75" t="str">
         <f>VLOOKUP('Virtual Machines'!J20,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="I20" s="75" t="str">
+      <c r="K20" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="J20" s="75" t="str">
+      <c r="L20" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="K20" s="75" t="str">
+      <c r="M20" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="L20" s="75" t="str">
+      <c r="N20" s="75" t="str">
         <f>CONCATENATE("https://",'Virtual Machines'!M20,".blob.core.windows.net/osdisks/",C20,".vhd")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/siamspsv01.vhd</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+        <v>https://ttplab2vmstorescu1.blob.core.windows.net/osdisks/siamspsv01.vhd</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="75" t="str">
         <f>'Virtual Machines'!K21</f>
         <v>SouthCentralUS</v>
       </c>
       <c r="B21" s="75" t="str">
         <f>'Virtual Machines'!L21</f>
-        <v>ttplab1-scu</v>
+        <v>ttplab2-scu</v>
       </c>
       <c r="C21" s="75" t="str">
         <f>'Virtual Machines'!A21</f>
         <v>siamport01</v>
       </c>
       <c r="D21" s="75" t="str">
+        <f>'Virtual Machines'!B21</f>
+        <v>Member Server</v>
+      </c>
+      <c r="E21" s="75" t="str">
+        <f>'Virtual Machines'!C21</f>
+        <v>siam.internal</v>
+      </c>
+      <c r="F21" s="75" t="str">
         <f>'Virtual Machines'!G21</f>
         <v>Standard_B2s</v>
       </c>
-      <c r="E21" s="75" t="str">
+      <c r="G21" s="75" t="str">
         <f>'Virtual Machines'!N21</f>
-        <v>ttplab1-scu-vnet-1</v>
-      </c>
-      <c r="F21" s="75" t="str">
+        <v>ttplab2-scu-vnet-1</v>
+      </c>
+      <c r="H21" s="75" t="str">
         <f>'Virtual Machines'!O21</f>
         <v>siamlan-scu-1</v>
       </c>
-      <c r="G21" s="75" t="str">
+      <c r="I21" s="75" t="str">
         <f>'Virtual Machines'!P21</f>
         <v>10.1.4.9</v>
       </c>
-      <c r="H21" s="75" t="str">
+      <c r="J21" s="75" t="str">
         <f>VLOOKUP('Virtual Machines'!J21,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="I21" s="75" t="str">
+      <c r="K21" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="J21" s="75" t="str">
+      <c r="L21" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="K21" s="75" t="str">
+      <c r="M21" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="L21" s="75" t="str">
+      <c r="N21" s="75" t="str">
         <f>CONCATENATE("https://",'Virtual Machines'!M21,".blob.core.windows.net/osdisks/",C21,".vhd")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/siamport01.vhd</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+        <v>https://ttplab2vmstorescu1.blob.core.windows.net/osdisks/siamport01.vhd</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="75" t="str">
         <f>'Virtual Machines'!K22</f>
         <v>SouthCentralUS</v>
       </c>
       <c r="B22" s="75" t="str">
         <f>'Virtual Machines'!L22</f>
-        <v>ttplab1-scu</v>
+        <v>ttplab2-scu</v>
       </c>
       <c r="C22" s="75" t="str">
         <f>'Virtual Machines'!A22</f>
         <v>siamscor01</v>
       </c>
       <c r="D22" s="75" t="str">
+        <f>'Virtual Machines'!B22</f>
+        <v>Member Server</v>
+      </c>
+      <c r="E22" s="75" t="str">
+        <f>'Virtual Machines'!C22</f>
+        <v>siam.internal</v>
+      </c>
+      <c r="F22" s="75" t="str">
         <f>'Virtual Machines'!G22</f>
         <v>Standard_B2s</v>
       </c>
-      <c r="E22" s="75" t="str">
+      <c r="G22" s="75" t="str">
         <f>'Virtual Machines'!N22</f>
-        <v>ttplab1-scu-vnet-1</v>
-      </c>
-      <c r="F22" s="75" t="str">
+        <v>ttplab2-scu-vnet-1</v>
+      </c>
+      <c r="H22" s="75" t="str">
         <f>'Virtual Machines'!O22</f>
         <v>siamlan-scu-1</v>
       </c>
-      <c r="G22" s="75" t="str">
+      <c r="I22" s="75" t="str">
         <f>'Virtual Machines'!P22</f>
         <v>10.1.4.10</v>
       </c>
-      <c r="H22" s="75" t="str">
+      <c r="J22" s="75" t="str">
         <f>VLOOKUP('Virtual Machines'!J22,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="I22" s="75" t="str">
+      <c r="K22" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="J22" s="75" t="str">
+      <c r="L22" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="K22" s="75" t="str">
+      <c r="M22" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="L22" s="75" t="str">
+      <c r="N22" s="75" t="str">
         <f>CONCATENATE("https://",'Virtual Machines'!M22,".blob.core.windows.net/osdisks/",C22,".vhd")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/siamscor01.vhd</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+        <v>https://ttplab2vmstorescu1.blob.core.windows.net/osdisks/siamscor01.vhd</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="75" t="str">
         <f>'Virtual Machines'!K23</f>
         <v>SouthCentralUS</v>
       </c>
       <c r="B23" s="75" t="str">
         <f>'Virtual Machines'!L23</f>
-        <v>ttplab1-scu</v>
+        <v>ttplab2-scu</v>
       </c>
       <c r="C23" s="75" t="str">
         <f>'Virtual Machines'!A23</f>
         <v>siamawap01</v>
       </c>
       <c r="D23" s="75" t="str">
+        <f>'Virtual Machines'!B23</f>
+        <v>Standalone</v>
+      </c>
+      <c r="E23" s="75">
+        <f>'Virtual Machines'!C23</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="75" t="str">
         <f>'Virtual Machines'!G23</f>
         <v>Standard_B2s</v>
       </c>
-      <c r="E23" s="75" t="str">
+      <c r="G23" s="75" t="str">
         <f>'Virtual Machines'!N23</f>
-        <v>ttplab1-scu-vnet-1</v>
-      </c>
-      <c r="F23" s="75" t="str">
+        <v>ttplab2-scu-vnet-1</v>
+      </c>
+      <c r="H23" s="75" t="str">
         <f>'Virtual Machines'!O23</f>
         <v>siamdmz-scu-1</v>
       </c>
-      <c r="G23" s="75" t="str">
+      <c r="I23" s="75" t="str">
         <f>'Virtual Machines'!P23</f>
         <v>10.1.5.4</v>
       </c>
-      <c r="H23" s="75" t="str">
+      <c r="J23" s="75" t="str">
         <f>VLOOKUP('Virtual Machines'!J23,ImageName!$A$2:$E$13,5,FALSE)</f>
         <v>MicrosoftWindowsServer:WindowsServer:2012-R2-Datacenter</v>
       </c>
-      <c r="I23" s="75" t="str">
+      <c r="K23" s="75" t="str">
         <f t="shared" si="0"/>
         <v>MicrosoftWindowsServer</v>
       </c>
-      <c r="J23" s="75" t="str">
+      <c r="L23" s="75" t="str">
         <f t="shared" si="1"/>
         <v>WindowsServer</v>
       </c>
-      <c r="K23" s="75" t="str">
+      <c r="M23" s="75" t="str">
         <f t="shared" si="2"/>
         <v>2012-R2-Datacenter</v>
       </c>
-      <c r="L23" s="75" t="str">
+      <c r="N23" s="75" t="str">
         <f>CONCATENATE("https://",'Virtual Machines'!M23,".blob.core.windows.net/osdisks/",C23,".vhd")</f>
-        <v>https://ttplab1vmstorescu1.blob.core.windows.net/osdisks/siamawap01.vhd</v>
+        <v>https://ttplab2vmstorescu1.blob.core.windows.net/osdisks/siamawap01.vhd</v>
       </c>
     </row>
   </sheetData>
@@ -7285,236 +7159,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136E109D-5FAE-5645-9687-5DE7DF43B810}">
-  <sheetPr>
-    <tabColor theme="9"/>
-  </sheetPr>
-  <dimension ref="A1:L5"/>
-  <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="64.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I1" t="s">
-        <v>161</v>
-      </c>
-      <c r="J1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="L1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="75" t="s">
-        <v>224</v>
-      </c>
-      <c r="B2" s="75" t="s">
-        <v>299</v>
-      </c>
-      <c r="C2" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="75" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" s="75" t="s">
-        <v>300</v>
-      </c>
-      <c r="F2" s="75" t="s">
-        <v>256</v>
-      </c>
-      <c r="G2" s="75" t="s">
-        <v>168</v>
-      </c>
-      <c r="H2" s="75" t="s">
-        <v>298</v>
-      </c>
-      <c r="I2" s="75" t="s">
-        <v>135</v>
-      </c>
-      <c r="J2" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="K2" s="75" t="s">
-        <v>123</v>
-      </c>
-      <c r="L2" s="75" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="75" t="s">
-        <v>224</v>
-      </c>
-      <c r="B3" s="75" t="s">
-        <v>299</v>
-      </c>
-      <c r="C3" s="75" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="75" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="75" t="s">
-        <v>300</v>
-      </c>
-      <c r="F3" s="75" t="s">
-        <v>256</v>
-      </c>
-      <c r="G3" s="75" t="s">
-        <v>169</v>
-      </c>
-      <c r="H3" s="75" t="s">
-        <v>298</v>
-      </c>
-      <c r="I3" s="75" t="s">
-        <v>135</v>
-      </c>
-      <c r="J3" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="K3" s="75" t="s">
-        <v>123</v>
-      </c>
-      <c r="L3" s="75" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="75" t="s">
-        <v>224</v>
-      </c>
-      <c r="B4" s="75" t="s">
-        <v>299</v>
-      </c>
-      <c r="C4" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="75" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" s="75" t="s">
-        <v>300</v>
-      </c>
-      <c r="F4" s="75" t="s">
-        <v>256</v>
-      </c>
-      <c r="G4" s="75" t="s">
-        <v>170</v>
-      </c>
-      <c r="H4" s="75" t="s">
-        <v>298</v>
-      </c>
-      <c r="I4" s="75" t="s">
-        <v>135</v>
-      </c>
-      <c r="J4" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="K4" s="75" t="s">
-        <v>123</v>
-      </c>
-      <c r="L4" s="75" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="75" t="s">
-        <v>224</v>
-      </c>
-      <c r="B5" s="75" t="s">
-        <v>299</v>
-      </c>
-      <c r="C5" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="75" t="s">
-        <v>119</v>
-      </c>
-      <c r="E5" s="75" t="s">
-        <v>300</v>
-      </c>
-      <c r="F5" s="75" t="s">
-        <v>256</v>
-      </c>
-      <c r="G5" s="75" t="s">
-        <v>171</v>
-      </c>
-      <c r="H5" s="75" t="s">
-        <v>298</v>
-      </c>
-      <c r="I5" s="75" t="s">
-        <v>135</v>
-      </c>
-      <c r="J5" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="K5" s="75" t="s">
-        <v>123</v>
-      </c>
-      <c r="L5" s="75" t="s">
-        <v>304</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F4FD86-AC71-A44A-992B-490E812AEE76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DCA5EC-4316-2E4F-ADD2-E00ED365E915}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7541,13 +7193,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>180</v>
+        <v>298</v>
       </c>
       <c r="D2" s="65" t="s">
         <v>113</v>
@@ -7568,86 +7220,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FA068C1E-21D7-FA47-A902-2274BAE6E871}">
-          <x14:formula1>
-            <xm:f>Locations!$A$1:$A$28</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CA08FC1C-1EDD-244C-B605-9FF9C76A92CF}">
-          <x14:formula1>
-            <xm:f>StorageTypes!$B$1:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DCA5EC-4316-2E4F-ADD2-E00ED365E915}">
-  <sheetPr>
-    <tabColor theme="9"/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2" s="65" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="D4" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C9B738B3-BD4A-714F-B62D-47A3C97C3488}">
           <x14:formula1>
             <xm:f>StorageTypes!$B$1:$B$8</xm:f>
@@ -7666,7 +7238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94889F62-D6FE-1348-83C3-98CDAF61D320}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -7709,102 +7281,102 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D2" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="F2" s="34" t="s">
         <v>250</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C5" s="34" t="s">
+        <v>243</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="E5" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="D5" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>245</v>
-      </c>
       <c r="F5" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -7896,212 +7468,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67733D4B-07E8-414C-9126-E060996A4B1A}">
-  <sheetPr>
-    <tabColor theme="9"/>
-  </sheetPr>
-  <dimension ref="A1:C19"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAF1B06-762A-444D-A88C-D470C6B2DD74}">
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>293</v>
-      </c>
-      <c r="B1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
-        <f>IF(ISNA(VLOOKUP("Domain Controller",'Virtual Machines'!$B2:$P2,15,FALSE)),0,VLOOKUP("Domain Controller",'Virtual Machines'!$B2:$P2,15,FALSE))</f>
-        <v>10.1.1.4</v>
-      </c>
-      <c r="C2" t="str">
-        <f>'Virtual Machines'!C2</f>
-        <v>eucs.internal</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="str">
-        <f>IF(ISNA(VLOOKUP("Member Server",'Virtual Machines'!$B4:$P4,15,FALSE)),0,VLOOKUP("Member Server",'Virtual Machines'!$B4:$P4,15,FALSE))</f>
-        <v>10.1.1.6</v>
-      </c>
-      <c r="C3" t="str">
-        <f>'Virtual Machines'!C4</f>
-        <v>eucs.internal</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" t="str">
-        <f>IF(ISNA(VLOOKUP("Member Server",'Virtual Machines'!$B5:$P5,15,FALSE)),0,VLOOKUP("Member Server",'Virtual Machines'!$B5:$P5,15,FALSE))</f>
-        <v>10.1.1.7</v>
-      </c>
-      <c r="C4" t="str">
-        <f>'Virtual Machines'!C5</f>
-        <v>eucs.internal</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" t="str">
-        <f>IF(ISNA(VLOOKUP("Member Server",'Virtual Machines'!$B6:$P6,15,FALSE)),0,VLOOKUP("Member Server",'Virtual Machines'!$B6:$P6,15,FALSE))</f>
-        <v>10.1.1.8</v>
-      </c>
-      <c r="C5" t="str">
-        <f>'Virtual Machines'!C6</f>
-        <v>eucs.internal</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" t="str">
-        <f>IF(ISNA(VLOOKUP("Member Server",'Virtual Machines'!$B7:$P7,15,FALSE)),0,VLOOKUP("Member Server",'Virtual Machines'!$B7:$P7,15,FALSE))</f>
-        <v>10.1.1.9</v>
-      </c>
-      <c r="C6" t="str">
-        <f>'Virtual Machines'!C7</f>
-        <v>eucs.internal</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" t="str">
-        <f>IF(ISNA(VLOOKUP("Member Server",'Virtual Machines'!$B8:$P8,15,FALSE)),0,VLOOKUP("Member Server",'Virtual Machines'!$B8:$P8,15,FALSE))</f>
-        <v>10.1.1.10</v>
-      </c>
-      <c r="C7" t="str">
-        <f>'Virtual Machines'!C8</f>
-        <v>eucs.internal</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" t="str">
-        <f>IF(ISNA(VLOOKUP("Member Server",'Virtual Machines'!$B9:$P9,15,FALSE)),0,VLOOKUP("Member Server",'Virtual Machines'!$B9:$P9,15,FALSE))</f>
-        <v>10.1.1.11</v>
-      </c>
-      <c r="C8" t="str">
-        <f>'Virtual Machines'!C9</f>
-        <v>eucs.internal</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="str">
-        <f>IF(ISNA(VLOOKUP("Domain Controller",'Virtual Machines'!$B10:$P10,15,FALSE)),0,VLOOKUP("Domain Controller",'Virtual Machines'!$B10:$P10,15,FALSE))</f>
-        <v>10.1.2.4</v>
-      </c>
-      <c r="C9" t="str">
-        <f>'Virtual Machines'!C10</f>
-        <v>user.internal</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" t="str">
-        <f>IF(ISNA(VLOOKUP("Member Server",'Virtual Machines'!$B11:$P11,15,FALSE)),0,VLOOKUP("Member Server",'Virtual Machines'!$B11:$P11,15,FALSE))</f>
-        <v>10.1.2.5</v>
-      </c>
-      <c r="C10" t="str">
-        <f>'Virtual Machines'!C11</f>
-        <v>user.internal</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11" t="str">
-        <f>IF(ISNA(VLOOKUP("Member Server",'Virtual Machines'!$B12:$P12,15,FALSE)),0,VLOOKUP("Member Server",'Virtual Machines'!$B12:$P12,15,FALSE))</f>
-        <v>10.1.2.6</v>
-      </c>
-      <c r="C11" t="str">
-        <f>'Virtual Machines'!C12</f>
-        <v>user.internal</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" t="str">
-        <f>IF(ISNA(VLOOKUP("Member Server",'Virtual Machines'!$B13:$P13,15,FALSE)),0,VLOOKUP("Member Server",'Virtual Machines'!$B13:$P13,15,FALSE))</f>
-        <v>10.1.2.7</v>
-      </c>
-      <c r="C12" t="str">
-        <f>'Virtual Machines'!C13</f>
-        <v>user.internal</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B13" t="str">
-        <f>IF(ISNA(VLOOKUP("Member Server",'Virtual Machines'!$B14:$P14,15,FALSE)),0,VLOOKUP("Member Server",'Virtual Machines'!$B14:$P14,15,FALSE))</f>
-        <v>10.1.2.8</v>
-      </c>
-      <c r="C13" t="str">
-        <f>'Virtual Machines'!C14</f>
-        <v>user.internal</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="str">
-        <f>IF(ISNA(VLOOKUP("Domain Controller",'Virtual Machines'!$B16:$P16,15,FALSE)),0,VLOOKUP("Domain Controller",'Virtual Machines'!$B16:$P16,15,FALSE))</f>
-        <v>10.1.4.4</v>
-      </c>
-      <c r="C14" t="str">
-        <f>'Virtual Machines'!C16</f>
-        <v>siam.internal</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B15" t="str">
-        <f>IF(ISNA(VLOOKUP("Member Server",'Virtual Machines'!$B17:$P17,15,FALSE)),0,VLOOKUP("Member Server",'Virtual Machines'!$B17:$P17,15,FALSE))</f>
-        <v>10.1.4.5</v>
-      </c>
-      <c r="C15" t="str">
-        <f>'Virtual Machines'!C17</f>
-        <v>siam.internal</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B16" t="str">
-        <f>IF(ISNA(VLOOKUP("Member Server",'Virtual Machines'!$B18:$P18,15,FALSE)),0,VLOOKUP("Member Server",'Virtual Machines'!$B18:$P18,15,FALSE))</f>
-        <v>10.1.4.6</v>
-      </c>
-      <c r="C16" t="str">
-        <f>'Virtual Machines'!C18</f>
-        <v>siam.internal</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" t="str">
-        <f>IF(ISNA(VLOOKUP("Member Server",'Virtual Machines'!$B19:$P19,15,FALSE)),0,VLOOKUP("Member Server",'Virtual Machines'!$B19:$P19,15,FALSE))</f>
-        <v>10.1.4.7</v>
-      </c>
-      <c r="C17" t="str">
-        <f>'Virtual Machines'!C19</f>
-        <v>siam.internal</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" t="str">
-        <f>IF(ISNA(VLOOKUP("Member Server",'Virtual Machines'!$B20:$P20,15,FALSE)),0,VLOOKUP("Member Server",'Virtual Machines'!$B20:$P20,15,FALSE))</f>
-        <v>10.1.4.8</v>
-      </c>
-      <c r="C18" t="str">
-        <f>'Virtual Machines'!C20</f>
-        <v>siam.internal</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" t="str">
-        <f>IF(ISNA(VLOOKUP("Member Server",'Virtual Machines'!$B21:$P21,15,FALSE)),0,VLOOKUP("Member Server",'Virtual Machines'!$B21:$P21,15,FALSE))</f>
-        <v>10.1.4.9</v>
-      </c>
-      <c r="C19" t="str">
-        <f>'Virtual Machines'!C21</f>
-        <v>siam.internal</v>
       </c>
     </row>
   </sheetData>
@@ -8109,7 +7498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B70C489-BCB0-9446-B04D-19891CC3CE63}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -8567,19 +7956,19 @@
         <v>153</v>
       </c>
       <c r="J6" s="59" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K6" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="L6" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="M6" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="L6" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="M6" s="34" t="s">
+      <c r="N6" s="35" t="s">
         <v>248</v>
-      </c>
-      <c r="N6" s="35" t="s">
-        <v>249</v>
       </c>
       <c r="O6" s="36" t="s">
         <v>168</v>
@@ -8645,19 +8034,19 @@
         <v>126</v>
       </c>
       <c r="J7" s="59" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K7" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="L7" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="M7" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="L7" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="M7" s="34" t="s">
+      <c r="N7" s="35" t="s">
         <v>248</v>
-      </c>
-      <c r="N7" s="35" t="s">
-        <v>249</v>
       </c>
       <c r="O7" s="36" t="s">
         <v>169</v>
@@ -8723,19 +8112,19 @@
         <v>126</v>
       </c>
       <c r="J8" s="59" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K8" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="M8" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="L8" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="M8" s="34" t="s">
+      <c r="N8" s="35" t="s">
         <v>248</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>249</v>
       </c>
       <c r="O8" s="36" t="s">
         <v>170</v>
@@ -8801,19 +8190,19 @@
         <v>126</v>
       </c>
       <c r="J9" s="68" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K9" s="66" t="s">
+        <v>246</v>
+      </c>
+      <c r="L9" s="66" t="s">
+        <v>245</v>
+      </c>
+      <c r="M9" s="66" t="s">
         <v>247</v>
       </c>
-      <c r="L9" s="66" t="s">
-        <v>246</v>
-      </c>
-      <c r="M9" s="66" t="s">
+      <c r="N9" s="70" t="s">
         <v>248</v>
-      </c>
-      <c r="N9" s="70" t="s">
-        <v>249</v>
       </c>
       <c r="O9" s="67" t="s">
         <v>171</v>
@@ -8974,7 +8363,7 @@
         <v>185</v>
       </c>
       <c r="O11" s="34" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P11" s="34" t="s">
         <v>50</v>
@@ -9046,7 +8435,7 @@
         <v>185</v>
       </c>
       <c r="O12" s="34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P12" s="34" t="s">
         <v>50</v>
@@ -9120,7 +8509,7 @@
         <v>185</v>
       </c>
       <c r="O13" s="34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P13" s="34" t="s">
         <v>50</v>
@@ -9192,7 +8581,7 @@
         <v>185</v>
       </c>
       <c r="O14" s="34" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P14" s="33" t="s">
         <v>50</v>
@@ -9340,7 +8729,7 @@
         <v>186</v>
       </c>
       <c r="O16" s="34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P16" s="34" t="s">
         <v>50</v>
@@ -9416,7 +8805,7 @@
         <v>186</v>
       </c>
       <c r="O17" s="34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P17" s="34" t="s">
         <v>50</v>
@@ -9561,7 +8950,7 @@
         <v>186</v>
       </c>
       <c r="O19" s="66" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P19" s="66" t="s">
         <v>50</v>
@@ -9618,22 +9007,22 @@
         <v>153</v>
       </c>
       <c r="J20" s="59" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K20" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="L20" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="L20" s="34" t="s">
+      <c r="M20" s="34" t="s">
         <v>243</v>
       </c>
-      <c r="M20" s="34" t="s">
+      <c r="N20" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="N20" s="35" t="s">
-        <v>245</v>
-      </c>
       <c r="O20" s="34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P20" s="34" t="s">
         <v>50</v>
@@ -9692,22 +9081,22 @@
         <v>126</v>
       </c>
       <c r="J21" s="59" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K21" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="L21" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="L21" s="34" t="s">
+      <c r="M21" s="34" t="s">
         <v>243</v>
       </c>
-      <c r="M21" s="34" t="s">
+      <c r="N21" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="N21" s="35" t="s">
-        <v>245</v>
-      </c>
       <c r="O21" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P21" s="34" t="s">
         <v>50</v>
@@ -9766,22 +9155,22 @@
         <v>126</v>
       </c>
       <c r="J22" s="59" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K22" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="L22" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="L22" s="34" t="s">
+      <c r="M22" s="34" t="s">
         <v>243</v>
       </c>
-      <c r="M22" s="34" t="s">
+      <c r="N22" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="N22" s="35" t="s">
-        <v>245</v>
-      </c>
       <c r="O22" s="34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P22" s="34" t="s">
         <v>50</v>
@@ -9838,22 +9227,22 @@
         <v>126</v>
       </c>
       <c r="J23" s="60" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K23" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="L23" s="42" t="s">
         <v>242</v>
       </c>
-      <c r="L23" s="42" t="s">
+      <c r="M23" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="M23" s="42" t="s">
+      <c r="N23" s="45" t="s">
         <v>244</v>
       </c>
-      <c r="N23" s="45" t="s">
-        <v>245</v>
-      </c>
       <c r="O23" s="42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P23" s="42" t="s">
         <v>50</v>
@@ -9981,7 +9370,7 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="74" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -10113,7 +9502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F80981F-6BEA-8A4B-BE6C-F087BA259512}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -11281,4 +10670,302 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D5F849-DAF9-C34D-AEE6-EC37AD633405}">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E4264CAD-A9A6-6344-8071-27B9ED8431D5}">
+          <x14:formula1>
+            <xm:f>StorageTypes!$B$1:$B$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7F99557B-E06D-234B-93E0-9F576E7ED517}">
+          <x14:formula1>
+            <xm:f>Locations!$A$1:$A$28</xm:f>
+          </x14:formula1>
+          <xm:sqref>A5</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009F57DB-AD3F-3340-95A5-9639F200ED75}">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView zoomScale="179" workbookViewId="0">
+      <selection activeCell="F2" sqref="E2:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>283</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>